--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2F773-3B6B-4CCF-904B-86FA50929F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2BE89-8766-4B7C-A61B-2F6AD03F52FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="2610" windowWidth="17460" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="1710" windowWidth="17460" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure directory services" sheetId="1" r:id="rId1"/>
+    <sheet name="Azure authentication methods" sheetId="2" r:id="rId2"/>
+    <sheet name="Azure external identities" sheetId="3" r:id="rId3"/>
+    <sheet name="Azure conditional access" sheetId="4" r:id="rId4"/>
+    <sheet name="Azure role-based access control" sheetId="5" r:id="rId5"/>
+    <sheet name="zero trust model" sheetId="6" r:id="rId6"/>
+    <sheet name="defense-in-depth" sheetId="7" r:id="rId7"/>
+    <sheet name="Microsoft Defender for Cloud" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +31,420 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+  <si>
+    <t>Active Directory (AD) </t>
+  </si>
+  <si>
+    <t>It runs on Windows Server and enables administrators to manage permissions and access to network resources.</t>
+  </si>
+  <si>
+    <t>Active Directory stores data as objects.</t>
+  </si>
+  <si>
+    <t>an object is a single element, such as a user, group, application or device such as a printer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>directory service</t>
+  </si>
+  <si>
+    <t>enables you to sign in and access both Microsoft cloud applications and cloud applications that you develop</t>
+  </si>
+  <si>
+    <t>With Microsoft Entra ID, you control the identity accounts, but Microsoft ensures that the service is available globally</t>
+  </si>
+  <si>
+    <t>When you secure identities on-premises with Active Directory, Microsoft doesn't monitor sign-in attempts.</t>
+  </si>
+  <si>
+    <t>When you connect Active Directory with Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>Microsoft can help protect you by detecting suspicious sign-in attempts at no extra cost</t>
+  </si>
+  <si>
+    <t>For example, Microsoft Entra ID can detect sign-in attempts from unexpected locations or unknown devices.</t>
+  </si>
+  <si>
+    <t>Who uses Microsoft Entra ID?</t>
+  </si>
+  <si>
+    <t>IT administrators</t>
+  </si>
+  <si>
+    <t>App developers</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Online service subscribers</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>What does Microsoft Entra ID do?</t>
+  </si>
+  <si>
+    <t>such as self-service password reset, multifactor authentication, a custom list of banned passwords, and smart lockout services.</t>
+  </si>
+  <si>
+    <t>Single sign-on</t>
+  </si>
+  <si>
+    <t>enables you to remember only one username and one password to access multiple applications.</t>
+  </si>
+  <si>
+    <t>Application management</t>
+  </si>
+  <si>
+    <t>manage your cloud and on-premises apps by using Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>Device management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Can I connect my on-premises AD with Microsoft Entra ID?</t>
+  </si>
+  <si>
+    <t>If you had an on-premises environment running Active Directory and a cloud deployment using Microsoft Entra ID, you would need to maintain two identity sets. </t>
+  </si>
+  <si>
+    <t>However, you can connect Active Directory with Microsoft Entra ID, using Microsoft Entra Connect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Entra Connect synchronizes user identities between on-premises Active Directory and Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>Microsoft Entra Connect synchronizes changes between both identity systems</t>
+  </si>
+  <si>
+    <t>so you can use features like SSO, multifactor authentication, and self-service password reset under both systems.</t>
+  </si>
+  <si>
+    <t>Microsoft Entra Domain Services</t>
+  </si>
+  <si>
+    <t>Hỗ trợ LDAP, NTLM, và Kerberos</t>
+  </si>
+  <si>
+    <t>As you move on-premises applications into the cloud, those apps may use legacy authentication methods like NTLM or Kerberos or directory features like LDAP.</t>
+  </si>
+  <si>
+    <t>But, it's often too hard and cost prohibitive to update your application code to use native Azure AD Authentication methods.</t>
+  </si>
+  <si>
+    <t>To let your migrated apps work correctly in the cloud, you can deploy and run Azure AD Domain Services.</t>
+  </si>
+  <si>
+    <t>A Microsoft Entra Domain Services managed domain lets you run legacy applications in the cloud that can't use modern authentication methods</t>
+  </si>
+  <si>
+    <t>How does Microsoft Entra Domain Services work?</t>
+  </si>
+  <si>
+    <t>When you create a Microsoft Entra Domain Services managed domain, you define a unique namespace</t>
+  </si>
+  <si>
+    <t>This namespace is the domain name</t>
+  </si>
+  <si>
+    <t>Two Windows Server domain controllers are then deployed into your selected Azure region. This deployment of DCs is known as a replica set.</t>
+  </si>
+  <si>
+    <t>You don't need to manage, configure, or update these DCs.</t>
+  </si>
+  <si>
+    <t>The Azure platform handles the DCs as part of the managed domain, including backups and encryption at rest using Azure Disk Encryption.</t>
+  </si>
+  <si>
+    <t>Is information synchronized?</t>
+  </si>
+  <si>
+    <t>A managed domain is configured to perform a one-way synchronization from Microsoft Entra ID to Microsoft Entra Domain Services</t>
+  </si>
+  <si>
+    <t>You can create resources directly in the managed domain, but they aren't synchronized back to Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>What’s multifactor authentication?</t>
+  </si>
+  <si>
+    <t>What's Microsoft Entra multifactor authentication?</t>
+  </si>
+  <si>
+    <t>enables users to choose an additional form of authentication during sign-in, such as a phone call or mobile app notification.</t>
+  </si>
+  <si>
+    <t>What’s passwordless authentication?</t>
+  </si>
+  <si>
+    <t>the password is removed and replaced with something you have, plus something you are, or something you know.</t>
+  </si>
+  <si>
+    <t>Windows Hello for Business</t>
+  </si>
+  <si>
+    <t>The biometric and PIN credentials are directly tied to the user's PC</t>
+  </si>
+  <si>
+    <t>Microsoft Authenticator App</t>
+  </si>
+  <si>
+    <t>allow your employee's phone to become a passwordless authentication method.</t>
+  </si>
+  <si>
+    <t>The Authenticator App turns any iOS or Android phone into a strong, passwordless credential</t>
+  </si>
+  <si>
+    <t>Users can sign-in to any platform or browser by getting a notification to their phone, matching a number displayed on the screen to the one on their phone, and then using their biometric (touch or face) or PIN to confirm. </t>
+  </si>
+  <si>
+    <t>FIDO2 security keys</t>
+  </si>
+  <si>
+    <t>An external identity is a person, device, service, etc. that is outside your organization</t>
+  </si>
+  <si>
+    <t>Microsoft Entra External ID refers to all the ways you can securely interact with users outside of your organization</t>
+  </si>
+  <si>
+    <t>Business to business (B2B) collaboration</t>
+  </si>
+  <si>
+    <t>Những người dùng này có thể sử dụng thông tin đăng nhập hiện tại của họ để truy cập vào tài nguyên mà bạn chia sẻ.</t>
+  </si>
+  <si>
+    <t>cho phép bạn mời người dùng từ các tổ chức khác tham gia vào các ứng dụng và dịch vụ của bạn mà không cần phải tạo tài khoản mới trong hệ thống của bạn</t>
+  </si>
+  <si>
+    <t>B2B direct connect</t>
+  </si>
+  <si>
+    <t>kết nối mạng giữa hai doanh nghiệp mà không cần đi qua internet công cộng</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Active Directory business to customer (B2C) </t>
+  </si>
+  <si>
+    <t>Quản lý danh tính và truy cập cho khách hàng (người tiêu dùng) của doanh nghiệp qua Azure Active Directory B2C.</t>
+  </si>
+  <si>
+    <t>Conditional Access</t>
+  </si>
+  <si>
+    <t>is a tool that Microsoft Entra ID uses to allow (or deny) access to resources based on identity signals.</t>
+  </si>
+  <si>
+    <t>These signals include who the user is, where the user is, and what device the user is requesting access from.</t>
+  </si>
+  <si>
+    <t>a user might not be challenged for second authentication factor if they're at a known location</t>
+  </si>
+  <si>
+    <t>However, they might be challenged for a second authentication factor if their sign-in signals are unusual or they're at an unexpected location.</t>
+  </si>
+  <si>
+    <t>Here, the signal might be the user's location, the user's device, or the application that the user is trying to access.</t>
+  </si>
+  <si>
+    <t>When can I use Conditional Access?</t>
+  </si>
+  <si>
+    <t>Azure role-based access control (Azure RBAC)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>giống aws policies, user, group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How is Azure RBAC enforced?</t>
+  </si>
+  <si>
+    <t>Zero Trust is a security model that assumes the worst case scenario and protects resources with that expectation. </t>
+  </si>
+  <si>
+    <t>Zero Trust assumes breach at the outset (giả định phạm vi ngay từ đầu), and then verifies each request as though it originated (bắt nguồn) from an uncontrolled network.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adjusting to Zero Trust</t>
+  </si>
+  <si>
+    <t>Traditionally, corporate networks were restricted, protected, and generally assumed safe.</t>
+  </si>
+  <si>
+    <t>Only managed computers could join the network, VPN access was tightly controlled, and personal devices were frequently restricted or blocked.</t>
+  </si>
+  <si>
+    <t>Then grants access based on authentication rather than location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with zero trust, Instead of assuming that a device is safe because it’s within the corporate network, it requires everyone to authenticate. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The objective of defense-in-depth is to protect information and prevent it from being stolen by those who aren't authorized to access it.</t>
+  </si>
+  <si>
+    <t>Layers of defense-in-depth</t>
+  </si>
+  <si>
+    <t>Physical security</t>
+  </si>
+  <si>
+    <t>protect computing hardware in the datacenter.</t>
+  </si>
+  <si>
+    <t>Identity and access</t>
+  </si>
+  <si>
+    <t>access is granted only to what's needed,</t>
+  </si>
+  <si>
+    <t>sign-in events and changes are logged.</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Use DDoS protection to filter large-scale attacks before they can affect the availability of a system for users.</t>
+  </si>
+  <si>
+    <t>Use perimeter firewalls to identify and alert on malicious attacks against your network.</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>limiting the network connectivity across all your resources to allow only what's required</t>
+  </si>
+  <si>
+    <t>By limiting this communication, you reduce the risk of an attack spreading to other systems in your network.</t>
+  </si>
+  <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>Secure access to virtual machines.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Ensure that applications are secure and free of vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Store sensitive application secrets in a secure storage medium.</t>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controls access to data that you need to protect.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monitoring tool for security posture management and threat protection</t>
+  </si>
+  <si>
+    <t>Assess, Secure, and Defend</t>
+  </si>
+  <si>
+    <t>Continuously assess</t>
+  </si>
+  <si>
+    <t>helps you continuously assess your environment.</t>
+  </si>
+  <si>
+    <t>includes vulnerability assessment solutions for your virtual machines, container registries, and SQL servers.</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>The list of recommendations is enabled and supported by the Azure Security Benchmark</t>
+  </si>
+  <si>
+    <t>Defender for Cloud assesses if new resources are configured according to security best practices.</t>
+  </si>
+  <si>
+    <t>If not, they're flagged and you get a prioritized list of recommendations for what you need to fix</t>
+  </si>
+  <si>
+    <t>this provides a set of guidelines for security and compliance best practices based on common compliance frameworks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Defender for Cloud groups the recommendations into security controls and adds a secure score value to each control.</t>
+  </si>
+  <si>
+    <t>To help you understand how important each recommendation is to your overall security posture</t>
+  </si>
+  <si>
+    <t>Defend</t>
+  </si>
+  <si>
+    <t>helps you defend your environment by providing security alerts and advanced threat protection features.</t>
+  </si>
+  <si>
+    <t>Security alerts</t>
+  </si>
+  <si>
+    <t>When Defender for Cloud detects a threat in any area of your environment, it generates a security alert.</t>
+  </si>
+  <si>
+    <t>you can export it</t>
+  </si>
+  <si>
+    <t>Defender for Cloud's threat protection includes fusion kill-chain analysis</t>
+  </si>
+  <si>
+    <t>which automatically correlates alerts in your environment based on cyber kill-chain analysis</t>
+  </si>
+  <si>
+    <t>to help you better understand the full story of an attack campaign, where it started, and what kind of impact it had on your resources.</t>
+  </si>
+  <si>
+    <t>Advanced threat protection</t>
+  </si>
+  <si>
+    <t>securing the management ports of your VMs</t>
+  </si>
+  <si>
+    <t>create allowlists for what apps should and shouldn't run on your machines.</t>
+  </si>
+  <si>
+    <t>use several layers of protection to prevent information from being accessed or stolen by unauthorized users.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -72,6 +485,683 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Four quadrant diagram showing security vs convenience, with Passwords + 2 Factor authentication being high security but low convenience.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="8553450" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113343</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5000625"/>
+          <a:ext cx="7657143" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="9286875"/>
+          <a:ext cx="15678150" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="15240000"/>
+          <a:ext cx="12801600" cy="6753225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398971</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2381250"/>
+          <a:ext cx="8628571" cy="2314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>211620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram showing scopes and roles. Role and scope combinations map to a specific kind of user or account, such as an observer or an admin.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="714376"/>
+          <a:ext cx="6915150" cy="3783494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>398971</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="714375"/>
+          <a:ext cx="8628571" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598971</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5000625"/>
+          <a:ext cx="8828571" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://learn.microsoft.com/en-us/training/wwl-azure/describe-azure-identity-access-security/media/zero-trust-cf9202be.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2381250"/>
+          <a:ext cx="12934950" cy="6772275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram the defense in depth layers. From the center: data, application, compute, network, perimeter, identity &amp; access, physical security.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="952500"/>
+          <a:ext cx="2581275" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://learn.microsoft.com/en-us/training/wwl-azure/describe-azure-identity-access-security/media/assess-secure-defend-46228306.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="6019800" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="7381875"/>
+          <a:ext cx="5009524" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +1427,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A21:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8">
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8">
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2BE89-8766-4B7C-A61B-2F6AD03F52FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC1E9E-0C6E-4C86-BA29-944D6D2D5C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1710" windowWidth="17460" windowHeight="11295" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure directory services" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Active Directory (AD) </t>
   </si>
@@ -426,6 +426,17 @@
   </si>
   <si>
     <t>use several layers of protection to prevent information from being accessed or stolen by unauthorized users.</t>
+  </si>
+  <si>
+    <t>managed domain services—such as Windows Domain Join, group policy, LDAP, and Kerberos authentication—without having to deploy, manage, or patch domain controllers.</t>
+  </si>
+  <si>
+    <t>can create only on managed domain serviced by azure ad domain services for a single azure ad directory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -488,6 +499,319 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>188762</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>151637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14049375"/>
+          <a:ext cx="13904762" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407895</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20716875"/>
+          <a:ext cx="13438095" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436638</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>123304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24288750"/>
+          <a:ext cx="12095238" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579324</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>190119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28813125"/>
+          <a:ext cx="13609524" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207981</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>237887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32146875"/>
+          <a:ext cx="12552381" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207981</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>180327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34290000"/>
+          <a:ext cx="12552381" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>245867</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>46905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8848B4CD-E25C-9A18-720D-113EEB598FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31813500"/>
+          <a:ext cx="14266667" cy="5761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -719,7 +1043,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -768,7 +1092,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -922,7 +1246,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -988,7 +1312,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1054,7 +1378,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1427,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1621,54 +1945,70 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" t="s">
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1676,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A21:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -1867,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1900,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure identity, access, and security.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp.thai.dh\Downloads\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC1E9E-0C6E-4C86-BA29-944D6D2D5C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Azure directory services" sheetId="1" r:id="rId1"/>
@@ -442,18 +441,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -800,6 +799,82 @@
         <a:xfrm>
           <a:off x="0" y="31813500"/>
           <a:ext cx="14266667" cy="5761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417333</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>180684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47148750"/>
+          <a:ext cx="14133333" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417333</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>180684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="49768125"/>
+          <a:ext cx="14133333" cy="2323809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,256 +1825,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -2013,71 +2088,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>57</v>
       </c>
@@ -2090,56 +2165,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -2152,46 +2227,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2204,26 +2279,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2237,46 +2312,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2289,116 +2364,116 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="7:8">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="7:8">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="7:8">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="7:8">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="7:8">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="7:8">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="7:8">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H32" t="s">
         <v>103</v>
       </c>
@@ -2411,126 +2486,126 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
         <v>126</v>
       </c>
